--- a/data/AERO.xlsx
+++ b/data/AERO.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -432,12 +477,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AERO 121, MATH 143, and IME 144. Recommended: CSC 111.</t>
+          <t>AERO 121, MATH 143, and IME 144.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CSC 111.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AERO 121.</t>
+          <t>AERO 121.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -498,12 +588,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ME 212. Corequisite: AERO 300. Recommended: AERO 215.</t>
+          <t>ME 212.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AERO 300.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>AERO 215.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP  </t>
         </is>
       </c>
     </row>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AERO 215, MATH 244, ME 211, and PHYS 133.</t>
+          <t>AERO 215, MATH 244, ME 211, and PHYS 133.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -542,12 +662,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ME 212. Corequisite: AERO 300. Recommended: AERO 215; and AERO 299 or AERO 301.</t>
+          <t>ME 212.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>AERO 300.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AERO 215; and AERO 299 or AERO 301.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F  </t>
         </is>
       </c>
     </row>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AERO 299 or AERO 301; and AERO 302.</t>
+          <t>AERO 299 or AERO 301; and AERO 302.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -586,12 +736,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AERO 215; AERO 299 or AERO 301. Concurrent: AERO 302.</t>
+          <t>AERO 215; AERO 299 or AERO 301.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AERO 302.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AERO 302, AERO 306, ENGL 149.</t>
+          <t>AERO 302, AERO 306, ENGL 149.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -652,12 +847,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AERO 300 and ME 212. Corequisite: AERO 321.</t>
+          <t>AERO 300 and ME 212.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>AERO 321.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -679,7 +889,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FCorequisite: AERO 320.</t>
+          <t>AERO 320.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AERO 300, CE 207 or CE 208, and ME 212.</t>
+          <t>AERO 300, CE 207 or CE 208, and ME 212.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AERO 220.</t>
+          <t>AERO 220.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AERO 300 and ME 212.</t>
+          <t>AERO 300 and ME 212.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AERO 353 or AERO 355; and ENGL 149.</t>
+          <t>AERO 353 or AERO 355; and ENGL 149.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AERO 300.</t>
+          <t>AERO 300.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AERO 299 or AERO 301; and AERO 355.</t>
+          <t>AERO 299 or AERO 301; and AERO 355.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PSY 350.</t>
+          <t>PSY 350.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -855,6 +1185,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AERO 303, CHEM 124.</t>
+          <t>AERO 303, CHEM 124.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AERO 303; AERO 353 or AERO 355; and CHEM 124.</t>
+          <t>AERO 303; AERO 353 or AERO 355; and CHEM 124.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AERO 303; AERO 306 or AERO 353 or AERO 355.</t>
+          <t>AERO 303; AERO 306 or AERO 353 or AERO 355.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AERO 302 and AERO 306.</t>
+          <t>AERO 302 and AERO 306.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AERO 303.</t>
+          <t>AERO 303.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PHYS 123 or PHYS 133 and senior standing, or graduate standing.</t>
+          <t>PHYS 123 or PHYS 133 and senior standing, or graduate standing.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1004,12 +1439,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AERO 306. Concurrent: AERO 320.</t>
+          <t>AERO 306.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AERO 320.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AERO 306 and AERO 320.</t>
+          <t>AERO 306 and AERO 320.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AERO 320 and AERO 351.</t>
+          <t>AERO 320 and AERO 351.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ME 212, AERO 306, AERO 300.</t>
+          <t>ME 212, AERO 306, AERO 300.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AERO 331.</t>
+          <t>AERO 331.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AERO 331.</t>
+          <t>AERO 331.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AERO 331, AERO 431.</t>
+          <t>AERO 331, AERO 431.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AERO 431.</t>
+          <t>AERO 431.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AERO 300, AERO 331.</t>
+          <t>AERO 300, AERO 331.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1202,12 +1772,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Senior standing, IME 144, AERO 215, AERO 306, AERO 405, AERO 420, AERO 431. Concurrent: AERO 401. Recommended: AERO 350.</t>
+          <t>Senior standing, IME 144, AERO 215, AERO 306, AERO 405, AERO 420, AERO 431.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>AERO 401.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>AERO 350.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F  </t>
         </is>
       </c>
     </row>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AERO 443 and senior standing.</t>
+          <t>AERO 443 and senior standing.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AERO 444 and senior standing.</t>
+          <t>AERO 444 and senior standing.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AERO 353 or AERO 355; ME 212; EE 201 and EE 251.</t>
+          <t>AERO 353 or AERO 355; ME 212; EE 201 and EE 251.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1290,12 +1920,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>IME 144; AERO 215; AERO 303; AERO 351; AERO 420 or AERO 421; AERO 431; AERO 446; and senior standing. Concurrent: AERO 402. Recommended: AERO 350; AERO 353 or AERO 355.</t>
+          <t>IME 144; AERO 215; AERO 303; AERO 351; AERO 420 or AERO 421; AERO 431; AERO 446; and senior standing.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>AERO 402.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>AERO 350; AERO 353 or AERO 355.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F  </t>
         </is>
       </c>
     </row>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AERO 447.</t>
+          <t>AERO 447.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AERO 448.</t>
+          <t>AERO 448.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1361,6 +2036,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AERO 351.</t>
+          <t>AERO 351.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1405,6 +2110,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1427,6 +2147,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1449,6 +2184,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1466,10 +2216,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AERO 303, AERO 320, AERO 431 and senior standing.</t>
+          <t>AERO 303, AERO 320, AERO 431 and senior standing.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1493,6 +2258,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1515,6 +2295,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1537,6 +2332,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1559,6 +2369,21 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1581,6 +2406,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1603,6 +2443,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1625,6 +2480,21 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1642,10 +2512,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>AERO 306 or AERO 351 or graduate standing.</t>
+          <t>AERO 306 or AERO 351 or graduate standing.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1669,6 +2554,21 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1686,10 +2586,25 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>AERO 300 (or similar MATLAB course) or graduate standing.</t>
+          <t>AERO 300 (or similar MATLAB course) or graduate standing.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1713,6 +2628,21 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1730,10 +2660,25 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AERO 302 or graduate standing.</t>
+          <t>AERO 302 or graduate standing.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1752,10 +2697,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>AERO 302 or graduate standing.</t>
+          <t>AERO 302 or graduate standing.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1774,10 +2734,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>AERO 303 or graduate standing.</t>
+          <t>AERO 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1796,10 +2771,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>AERO 299 or AERO 301; AERO 302; AERO 303; or graduate standing.</t>
+          <t>AERO 299 or AERO 301; AERO 302; AERO 303; or graduate standing.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1818,10 +2808,25 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AERO 306 and AERO 307; or graduate standing.</t>
+          <t>AERO 306 and AERO 307; or graduate standing.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1840,10 +2845,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>AERO 307 or graduate standing.</t>
+          <t>AERO 307 or graduate standing.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1862,10 +2882,25 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AERO 431 or graduate standing.</t>
+          <t>AERO 431 or graduate standing.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1889,6 +2924,21 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1906,10 +2956,25 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>AERO 431.</t>
+          <t>AERO 431.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1933,6 +2998,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1955,6 +3035,21 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1972,10 +3067,25 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>AERO 303, AERO 401 or 402; or graduate standing.</t>
+          <t>AERO 303, AERO 401 or 402; or graduate standing.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1994,10 +3104,25 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>AERO 401 or graduate standing.</t>
+          <t>AERO 401 or graduate standing.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2016,10 +3141,25 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>AERO 402 or graduate standing.</t>
+          <t>AERO 402 or graduate standing.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2043,6 +3183,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2060,10 +3215,25 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>AERO 450 or graduate standing.</t>
+          <t>AERO 450 or graduate standing.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2087,6 +3257,21 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2104,10 +3289,25 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>AERO 320 or graduate standing.</t>
+          <t>AERO 320 or graduate standing.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2126,10 +3326,25 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>AERO 351 or graduate standing.</t>
+          <t>AERO 351 or graduate standing.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2148,10 +3363,25 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AERO 421 or graduate standing.</t>
+          <t>AERO 421 or graduate standing.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2170,10 +3400,25 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>AERO 350 or AERO 446, or graduate standing.</t>
+          <t>AERO 350 or AERO 446, or graduate standing.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2192,10 +3437,25 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AERO 350 or AERO 446, or graduate standing.</t>
+          <t>AERO 350 or AERO 446, or graduate standing.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2214,10 +3474,25 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>AERO 445 or graduate standing.</t>
+          <t>AERO 445 or graduate standing.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2236,10 +3511,25 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AERO 449 or graduate standing.</t>
+          <t>AERO 449 or graduate standing.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2258,12 +3548,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AERO 401 or 402; or graduate standing. Recommended: AERO 350.</t>
+          <t>AERO 401 or 402; or graduate standing.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>AERO 350.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -2280,10 +3585,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AERO 302 and AERO 406.</t>
+          <t>AERO 302 and AERO 406.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2302,10 +3622,25 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>AERO 568.</t>
+          <t>AERO 568.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2329,6 +3664,21 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2351,6 +3701,21 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2373,6 +3738,21 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2395,6 +3775,21 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2417,6 +3812,21 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -2439,6 +3849,21 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -2460,6 +3885,21 @@
         </is>
       </c>
       <c r="D96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
